--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9896241418369079</v>
+        <v>0.9896241418369076</v>
       </c>
       <c r="D13">
         <v>0.9961310326781126</v>
@@ -958,13 +958,13 @@
         <v>0.9967233654768125</v>
       </c>
       <c r="F13">
-        <v>0.9896241418369079</v>
+        <v>0.9896241418369076</v>
       </c>
       <c r="G13">
         <v>0.9922312828193848</v>
       </c>
       <c r="H13">
-        <v>0.9989723178993116</v>
+        <v>0.9989723178993114</v>
       </c>
       <c r="I13">
         <v>0.9945925867416535</v>
@@ -976,10 +976,10 @@
         <v>0.9964271990774626</v>
       </c>
       <c r="L13">
-        <v>0.9930256704571853</v>
+        <v>0.9930256704571852</v>
       </c>
       <c r="M13">
-        <v>0.9947124545753638</v>
+        <v>0.9947124545753637</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9749763155331569</v>
+        <v>0.9749763155331567</v>
       </c>
       <c r="D15">
         <v>1.113395957094655</v>
@@ -1040,7 +1040,7 @@
         <v>0.9621615087965766</v>
       </c>
       <c r="F15">
-        <v>0.9749763155331569</v>
+        <v>0.9749763155331567</v>
       </c>
       <c r="G15">
         <v>1.065751491206376</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9948050364628221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.135415534191667</v>
+      </c>
+      <c r="D16">
+        <v>0.6921123391403485</v>
+      </c>
+      <c r="E16">
+        <v>1.031329407819405</v>
+      </c>
+      <c r="F16">
+        <v>1.135415534191667</v>
+      </c>
+      <c r="G16">
+        <v>0.8370701967696368</v>
+      </c>
+      <c r="H16">
+        <v>1.11817816371222</v>
+      </c>
+      <c r="I16">
+        <v>1.066769766108889</v>
+      </c>
+      <c r="J16">
+        <v>0.6921123391403485</v>
+      </c>
+      <c r="K16">
+        <v>0.8617208734798767</v>
+      </c>
+      <c r="L16">
+        <v>0.9985682038357718</v>
+      </c>
+      <c r="M16">
+        <v>0.9801459012903612</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.135415534191667</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9896241418369076</v>
+        <v>0.9896241418369079</v>
       </c>
       <c r="D13">
         <v>0.9961310326781126</v>
@@ -961,13 +961,13 @@
         <v>0.9967233654768125</v>
       </c>
       <c r="F13">
-        <v>0.9896241418369076</v>
+        <v>0.9896241418369079</v>
       </c>
       <c r="G13">
         <v>0.9922312828193848</v>
       </c>
       <c r="H13">
-        <v>0.9989723178993114</v>
+        <v>0.9989723178993116</v>
       </c>
       <c r="I13">
         <v>0.9945925867416535</v>
@@ -979,10 +979,10 @@
         <v>0.9964271990774626</v>
       </c>
       <c r="L13">
-        <v>0.9930256704571852</v>
+        <v>0.9930256704571853</v>
       </c>
       <c r="M13">
-        <v>0.9947124545753637</v>
+        <v>0.9947124545753638</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9749763155331567</v>
+        <v>0.9749763155331569</v>
       </c>
       <c r="D15">
         <v>1.113395957094655</v>
@@ -1043,7 +1043,7 @@
         <v>0.9621615087965766</v>
       </c>
       <c r="F15">
-        <v>0.9749763155331567</v>
+        <v>0.9749763155331569</v>
       </c>
       <c r="G15">
         <v>1.065751491206376</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8314600000000011</v>
+        <v>1.135415534191667</v>
       </c>
       <c r="D10">
-        <v>0.6771120000000009</v>
+        <v>0.6921123391403485</v>
       </c>
       <c r="E10">
-        <v>1.205544000000001</v>
+        <v>1.031329407819405</v>
       </c>
       <c r="F10">
-        <v>0.8314600000000011</v>
+        <v>1.135415534191667</v>
       </c>
       <c r="G10">
-        <v>0.6810479999999993</v>
+        <v>0.8370701967696368</v>
       </c>
       <c r="H10">
-        <v>1.754487999999998</v>
+        <v>1.11817816371222</v>
       </c>
       <c r="I10">
-        <v>1.133448000000001</v>
+        <v>1.066769766108889</v>
       </c>
       <c r="J10">
-        <v>0.6771120000000009</v>
+        <v>0.6921123391403485</v>
       </c>
       <c r="K10">
-        <v>0.9413280000000011</v>
+        <v>0.8617208734798767</v>
       </c>
       <c r="L10">
-        <v>0.8863940000000011</v>
+        <v>0.9985682038357718</v>
       </c>
       <c r="M10">
-        <v>1.047183333333334</v>
+        <v>0.9801459012903612</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7788999999999999</v>
+        <v>0.8639235864706001</v>
       </c>
       <c r="D11">
-        <v>0.1444499999999998</v>
+        <v>1.005776497681871</v>
       </c>
       <c r="E11">
-        <v>1.4101375</v>
+        <v>1.076221178393047</v>
       </c>
       <c r="F11">
-        <v>0.7788999999999999</v>
+        <v>0.8639235864706001</v>
       </c>
       <c r="G11">
-        <v>0.36</v>
+        <v>0.8996664663709381</v>
       </c>
       <c r="H11">
-        <v>2.342912499999999</v>
+        <v>1.341717099503989</v>
       </c>
       <c r="I11">
-        <v>1.29195</v>
+        <v>1.014440589805952</v>
       </c>
       <c r="J11">
-        <v>0.1444499999999998</v>
+        <v>1.005776497681871</v>
       </c>
       <c r="K11">
-        <v>0.7772937499999999</v>
+        <v>1.040998838037459</v>
       </c>
       <c r="L11">
-        <v>0.7780968749999999</v>
+        <v>0.9524612122540295</v>
       </c>
       <c r="M11">
-        <v>1.054725</v>
+        <v>1.033624236371066</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8758146660352011</v>
+        <v>0.8641663480023295</v>
       </c>
       <c r="D12">
-        <v>0.4965152163839993</v>
+        <v>1.008153399035153</v>
       </c>
       <c r="E12">
-        <v>1.236321909248001</v>
+        <v>1.075306847994618</v>
       </c>
       <c r="F12">
-        <v>0.8758146660352011</v>
+        <v>0.8641663480023295</v>
       </c>
       <c r="G12">
-        <v>0.6265686078464009</v>
+        <v>0.9013266996263323</v>
       </c>
       <c r="H12">
-        <v>1.767069542297595</v>
+        <v>1.338469473386702</v>
       </c>
       <c r="I12">
-        <v>1.163888742399999</v>
+        <v>1.013625997084354</v>
       </c>
       <c r="J12">
-        <v>0.4965152163839993</v>
+        <v>1.008153399035153</v>
       </c>
       <c r="K12">
-        <v>0.8664185628160002</v>
+        <v>1.041730123514886</v>
       </c>
       <c r="L12">
-        <v>0.8711166144256006</v>
+        <v>0.9529482357586077</v>
       </c>
       <c r="M12">
-        <v>1.027696447368533</v>
+        <v>1.033508127521582</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9896241418369079</v>
+        <v>0.8638894866957895</v>
       </c>
       <c r="D13">
-        <v>0.9961310326781126</v>
+        <v>1.006214925067073</v>
       </c>
       <c r="E13">
-        <v>0.9967233654768125</v>
+        <v>1.076135673197455</v>
       </c>
       <c r="F13">
-        <v>0.9896241418369079</v>
+        <v>0.8638894866957895</v>
       </c>
       <c r="G13">
-        <v>0.9922312828193848</v>
+        <v>0.9000487988081241</v>
       </c>
       <c r="H13">
-        <v>0.9989723178993116</v>
+        <v>1.341090018720263</v>
       </c>
       <c r="I13">
-        <v>0.9945925867416535</v>
+        <v>1.014138843495322</v>
       </c>
       <c r="J13">
-        <v>0.9961310326781126</v>
+        <v>1.006214925067073</v>
       </c>
       <c r="K13">
-        <v>0.9964271990774626</v>
+        <v>1.041175299132264</v>
       </c>
       <c r="L13">
-        <v>0.9930256704571853</v>
+        <v>0.9525323929140267</v>
       </c>
       <c r="M13">
-        <v>0.9947124545753638</v>
+        <v>1.033586290997338</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.009896652644755</v>
+        <v>0.8314600000000011</v>
       </c>
       <c r="D14">
-        <v>1.033130511395262</v>
+        <v>0.6771120000000009</v>
       </c>
       <c r="E14">
-        <v>0.9716443094111707</v>
+        <v>1.205544000000001</v>
       </c>
       <c r="F14">
-        <v>1.009896652644755</v>
+        <v>0.8314600000000011</v>
       </c>
       <c r="G14">
-        <v>1.011019174352468</v>
+        <v>0.6810479999999993</v>
       </c>
       <c r="H14">
-        <v>0.9543429892106348</v>
+        <v>1.754487999999998</v>
       </c>
       <c r="I14">
-        <v>0.9852356185684198</v>
+        <v>1.133448000000001</v>
       </c>
       <c r="J14">
-        <v>1.033130511395262</v>
+        <v>0.6771120000000009</v>
       </c>
       <c r="K14">
-        <v>1.002387410403217</v>
+        <v>0.9413280000000011</v>
       </c>
       <c r="L14">
-        <v>1.006142031523986</v>
+        <v>0.8863940000000011</v>
       </c>
       <c r="M14">
-        <v>0.9942115425971186</v>
+        <v>1.047183333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9749763155331569</v>
+        <v>0.7788999999999999</v>
       </c>
       <c r="D15">
-        <v>1.113395957094655</v>
+        <v>0.1444499999999998</v>
       </c>
       <c r="E15">
-        <v>0.9621615087965766</v>
+        <v>1.4101375</v>
       </c>
       <c r="F15">
-        <v>0.9749763155331569</v>
+        <v>0.7788999999999999</v>
       </c>
       <c r="G15">
-        <v>1.065751491206376</v>
+        <v>0.36</v>
       </c>
       <c r="H15">
-        <v>0.8917700982245065</v>
+        <v>2.342912499999999</v>
       </c>
       <c r="I15">
-        <v>0.9607748479216625</v>
+        <v>1.29195</v>
       </c>
       <c r="J15">
-        <v>1.113395957094655</v>
+        <v>0.1444499999999998</v>
       </c>
       <c r="K15">
-        <v>1.037778732945616</v>
+        <v>0.7772937499999999</v>
       </c>
       <c r="L15">
-        <v>1.006377524239386</v>
+        <v>0.7780968749999999</v>
       </c>
       <c r="M15">
-        <v>0.9948050364628221</v>
+        <v>1.054725</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.135415534191667</v>
+        <v>0.8758146660352011</v>
       </c>
       <c r="D16">
-        <v>0.6921123391403485</v>
+        <v>0.4965152163839993</v>
       </c>
       <c r="E16">
-        <v>1.031329407819405</v>
+        <v>1.236321909248001</v>
       </c>
       <c r="F16">
-        <v>1.135415534191667</v>
+        <v>0.8758146660352011</v>
       </c>
       <c r="G16">
-        <v>0.8370701967696368</v>
+        <v>0.6265686078464009</v>
       </c>
       <c r="H16">
-        <v>1.11817816371222</v>
+        <v>1.767069542297595</v>
       </c>
       <c r="I16">
-        <v>1.066769766108889</v>
+        <v>1.163888742399999</v>
       </c>
       <c r="J16">
-        <v>0.6921123391403485</v>
+        <v>0.4965152163839993</v>
       </c>
       <c r="K16">
-        <v>0.8617208734798767</v>
+        <v>0.8664185628160002</v>
       </c>
       <c r="L16">
-        <v>0.9985682038357718</v>
+        <v>0.8711166144256006</v>
       </c>
       <c r="M16">
-        <v>0.9801459012903612</v>
+        <v>1.027696447368533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9896241418369076</v>
+      </c>
+      <c r="D17">
+        <v>0.9961310326781126</v>
+      </c>
+      <c r="E17">
+        <v>0.9967233654768125</v>
+      </c>
+      <c r="F17">
+        <v>0.9896241418369076</v>
+      </c>
+      <c r="G17">
+        <v>0.9922312828193848</v>
+      </c>
+      <c r="H17">
+        <v>0.9989723178993114</v>
+      </c>
+      <c r="I17">
+        <v>0.9945925867416535</v>
+      </c>
+      <c r="J17">
+        <v>0.9961310326781126</v>
+      </c>
+      <c r="K17">
+        <v>0.9964271990774626</v>
+      </c>
+      <c r="L17">
+        <v>0.9930256704571852</v>
+      </c>
+      <c r="M17">
+        <v>0.9947124545753637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.009896652644755</v>
+      </c>
+      <c r="D18">
+        <v>1.033130511395262</v>
+      </c>
+      <c r="E18">
+        <v>0.9716443094111707</v>
+      </c>
+      <c r="F18">
+        <v>1.009896652644755</v>
+      </c>
+      <c r="G18">
+        <v>1.011019174352468</v>
+      </c>
+      <c r="H18">
+        <v>0.9543429892106348</v>
+      </c>
+      <c r="I18">
+        <v>0.9852356185684198</v>
+      </c>
+      <c r="J18">
+        <v>1.033130511395262</v>
+      </c>
+      <c r="K18">
+        <v>1.002387410403217</v>
+      </c>
+      <c r="L18">
+        <v>1.006142031523986</v>
+      </c>
+      <c r="M18">
+        <v>0.9942115425971186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9749763155331567</v>
+      </c>
+      <c r="D19">
+        <v>1.113395957094655</v>
+      </c>
+      <c r="E19">
+        <v>0.9621615087965766</v>
+      </c>
+      <c r="F19">
+        <v>0.9749763155331567</v>
+      </c>
+      <c r="G19">
+        <v>1.065751491206376</v>
+      </c>
+      <c r="H19">
+        <v>0.8917700982245065</v>
+      </c>
+      <c r="I19">
+        <v>0.9607748479216625</v>
+      </c>
+      <c r="J19">
+        <v>1.113395957094655</v>
+      </c>
+      <c r="K19">
+        <v>1.037778732945616</v>
+      </c>
+      <c r="L19">
+        <v>1.006377524239386</v>
+      </c>
+      <c r="M19">
+        <v>0.9948050364628221</v>
       </c>
     </row>
   </sheetData>
